--- a/medicine/Psychotrope/Viticulture_en_Slovaquie/Viticulture_en_Slovaquie.xlsx
+++ b/medicine/Psychotrope/Viticulture_en_Slovaquie/Viticulture_en_Slovaquie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La viticulture en Slovaquie commence au Ier millénaire av. J.-C.. La seconde moitié du Moyen Âge peut être considérée comme une période particulièrement bénéfique pour le développement de la viticulture, le seul événement désastreux pour la région ayant été l'invasion des Tatars au XIIe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Cadre géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Slovaquie est un pays de l'Europe centrale et ses conditions microclimatiques sont comparables à celles de ses voisins, producteurs de vins : la Hongrie et l'Autriche.
 La viticulture est concentrée dans le sud du pays, en particulier sur les versants sud, sud-ouest et sud-est des Carpates, qui occupent deux tiers du territoire slovaque.
@@ -543,7 +557,9 @@
           <t>Contexte historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux écrivains au cours des siècles, en particulier autrichiens et hongrois, rapportent l’appréciation de la production locale de la Slovaquie pour la qualité de ses raisins et de ses vins blancs. 
 Au XXe siècle, le secteur viticole slovaque a été durement marqué par plus de 40 ans de « socialisme réel » : la collectivisation des vignobles et de la production de vin, qui provenait à 80 % des grandes fermes d’État, a favorisé pendant cette période le rendement au détriment de la qualité.
@@ -580,7 +596,9 @@
           <t>État actuel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marché des vins slovaques se développe dynamiquement mais la situation actuelle[Quand ?] est assez contradictoire. D'une part sont produits des vins dont la qualité s'améliore progressivement, d'autre part la production de la matière première est en crise. 
 Les vins de table restent décisifs pour l'économie des grands producteurs. 
@@ -615,9 +633,11 @@
           <t>Réglementation vinicole en Slovaquie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Slovaquie a adopté des mesures afin d'aligner sa législation en matière de viticulture sur l'acquis communautaire. En particulier, la Slovaquie a adopté, selon un modèle allemand, la loi no 182/2005 sur la viticulture[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Slovaquie a adopté des mesures afin d'aligner sa législation en matière de viticulture sur l'acquis communautaire. En particulier, la Slovaquie a adopté, selon un modèle allemand, la loi no 182/2005 sur la viticulture.
 Selon la loi, les vins slovaques sont classés en plusieurs catégories, dont les plus importants sont: 
 les vins de table (vína stolové),
 les vins de qualité (vína akostné), et
@@ -659,7 +679,9 @@
           <t>Les grands terroirs slovaques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble slovaque est divisé en six régions. Chaque région est caractérisée par des conditions naturelles spécifiques et par une histoire particulière. La carte ci-dessous permet de se faire une idée de la répartition géographique de chacune de ces régions. 
 Le climat, plutôt continental, se distingue de celui de l'Europe occidentale par une amplitude saisonnière plus accentuée : l'écart entre les températures hivernales et estivales est de l'ordre de 20 °C. 
@@ -700,7 +722,9 @@
           <t>Les cépages cultivés en Slovaquie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les conditions thermiques et climatiques de la Slovaquie sont plutôt favorables aux cépages blancs. Ils sont plantés sur près des trois quarts de la superficie du vignoble, répartis en cépages courants, aromatiques et « mondiaux ».
 Parmi les premiers, les plus répandus sont le valtelin vert et le riesling italien, qui couvrent à eux seuls presque la moitié de l'ensemble du vignoble. Les autres cépages courants importants sont le müller-thurgau, le pinot blanc et le riesling rhénan. 
@@ -736,7 +760,9 @@
           <t>Le Tokaj</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin de Tokaj était un problème international important entre la Hongrie et la Slovaquie pendant plusieurs années après la Deuxième Guerre mondiale. Bien que la Slovaquie ait légitimement droit à l'appellation Tokaj (la région viticole de Tokaj se trouve en Hongrie et en Slovaquie mais, après la Première Guerre mondiale, le bassin traditionnel de production a été coupé par la frontière politique), la Hongrie s’opposait à l'utilisation de l'appellation Tokaj par les vignerons slovaques produisant le vin Tokaj dans la partie slovaque de la région viticole de Tokaj. 
 En 1993, un accord a été conclu entre la Hongrie et l'Union européenne, cette dernière s'étant engagée à ne reconnaître que le vin de Tokaj hongrois. Pour cette raison, la Slovaquie ne pouvait pas exporter ses vins de Tokaj dans les États membres. Bien que depuis 1996 l'Union européenne eût invité à plusieurs reprises la Hongrie à résoudre ce problème avec la Slovaquie, la situation n'avait guère évolué jusqu'à 2004. 
@@ -769,7 +795,9 @@
           <t>Meilleurs vins slovaques</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Un vin slovaque de haute qualité, c'est avant tout un vin produit à partir d'un seul cépage. Si on met à part le vin de Tokaj, un vin de sélection avec attribut ne peut à ce jour qu'être issu d'un seul cépage.[réf. nécessaire]
 </t>
